--- a/biology/Botanique/Daphne_pontica/Daphne_pontica.xlsx
+++ b/biology/Botanique/Daphne_pontica/Daphne_pontica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Daphne pontica est une espèce européenne et asiatique de daphnés de la famille des Thymelaeaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Daphne pontica est un arbuste à feuilles persistantes, légèrement ramifié, qui peut atteindre une hauteur de 40 à 100 cm. Les jeunes rameaux feuillus sont verts et nus, les rameaux plus vieux ont une écorce brun rougeâtre et perdent leurs feuilles. Les feuilles alternativement arrangées, aux extrémités de la branche encombrées, simples et non divisées sont presque sans pédicule. Les limbes des feuilles sont glabres, obovales, elliptiques ou oblongs elliptiques, ont une longueur de 2,5 à 9,5 cm et une largeur de 1 à 4,5 cm.
 Les inflorescences 1 à 4 cm cm de long, généralement doubles, se trouvent à l'aisselle de bractées plus petites dans la partie inférieure des pousses de l'année. Les fleurs sont généralement pédonculées de 3 à 8 mm de long. Les bractées restent non développées.
@@ -547,7 +561,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Daphne pontica se situe principalement dans la région située au sud de la mer Noire, du sud-est de la Bulgarie à la Géorgie, en passant par le nord de la Turquie. En outre, l'espèce est également présente dans le nord de l'Iran.
 Elle est présente jusqu'à 2 200 m d'altitude.
